--- a/taurus/Training_0004-Linear_EncoderDecoder_SweepEachBit/Training_0004.xlsx
+++ b/taurus/Training_0004-Linear_EncoderDecoder_SweepEachBit/Training_0004.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\AGH\Projects\ANN\CNN_autoencoder\results\taurus\Training_0004-Linear_EncoderDecoder_SweepEachBit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{761721A2-98B1-40E6-B0A3-9113F7837A76}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2BC8FFDF-B343-4142-BC52-D3B00173F1EB}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{BD5D6309-99CE-4C87-926D-29892797E216}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{BD5D6309-99CE-4C87-926D-29892797E216}"/>
   </bookViews>
   <sheets>
     <sheet name="Model" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="24">
   <si>
     <t>learning_rate</t>
   </si>
@@ -107,6 +107,9 @@
   <si>
     <t>n_bottleneck = 48</t>
   </si>
+  <si>
+    <t>images=1500</t>
+  </si>
 </sst>
 </file>
 
@@ -115,7 +118,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -127,6 +130,13 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -152,11 +162,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -294,10 +306,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>v_batch_size!$C$10:$C$22</c:f>
+              <c:f>v_batch_size!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -339,10 +351,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>v_batch_size!$D$10:$D$22</c:f>
+              <c:f>v_batch_size!$D$10:$D$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.1862</c:v>
                 </c:pt>
@@ -429,10 +441,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>v_batch_size!$C$10:$C$22</c:f>
+              <c:f>v_batch_size!$C$10:$C$21</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>2</c:v>
                 </c:pt>
@@ -474,10 +486,10 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>v_batch_size!$E$10:$E$22</c:f>
+              <c:f>v_batch_size!$E$10:$E$21</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="13"/>
+                <c:ptCount val="12"/>
                 <c:pt idx="0">
                   <c:v>0.17610000000000001</c:v>
                 </c:pt>
@@ -982,6 +994,15 @@
                 <c:pt idx="6">
                   <c:v>96</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
@@ -1011,6 +1032,15 @@
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.18160000000000001</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.18179999999999999</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.1812</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0.18149999999999999</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1087,15 +1117,24 @@
                 <c:pt idx="6">
                   <c:v>96</c:v>
                 </c:pt>
+                <c:pt idx="7">
+                  <c:v>128</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>256</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>512</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>v_n_bottleneck!$E$10:$E$18</c:f>
+              <c:f>v_n_bottleneck!$E$10:$E$19</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="9"/>
+                <c:ptCount val="10"/>
                 <c:pt idx="0">
                   <c:v>0.16020000000000001</c:v>
                 </c:pt>
@@ -1115,6 +1154,15 @@
                   <c:v>0.1603</c:v>
                 </c:pt>
                 <c:pt idx="6">
+                  <c:v>0.1603</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0.16020000000000001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0.16039999999999999</c:v>
+                </c:pt>
+                <c:pt idx="9">
                   <c:v>0.1603</c:v>
                 </c:pt>
               </c:numCache>
@@ -4230,7 +4278,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B3CA9EA0-81A1-4631-AFA4-ADE66B266A78}">
   <dimension ref="L3:L21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
@@ -4301,13 +4349,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E9D6F212-BBC5-4711-822D-DAEA797CC27E}">
   <dimension ref="B2:G22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="O6" sqref="O6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="4.6328125" customWidth="1"/>
+    <col min="2" max="2" width="7.453125" customWidth="1"/>
     <col min="3" max="3" width="11.08984375" customWidth="1"/>
     <col min="4" max="5" width="14.08984375" customWidth="1"/>
     <col min="6" max="6" width="13.1796875" customWidth="1"/>
@@ -4435,7 +4483,7 @@
         <v>0.18010000000000001</v>
       </c>
     </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C17">
         <v>50</v>
       </c>
@@ -4446,7 +4494,7 @@
         <v>0.1583</v>
       </c>
     </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C18">
         <v>64</v>
       </c>
@@ -4457,7 +4505,7 @@
         <v>0.1643</v>
       </c>
     </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C19">
         <v>100</v>
       </c>
@@ -4468,7 +4516,7 @@
         <v>0.15859999999999999</v>
       </c>
     </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C20">
         <v>128</v>
       </c>
@@ -4479,7 +4527,7 @@
         <v>0.1361</v>
       </c>
     </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.35">
       <c r="C21">
         <v>256</v>
       </c>
@@ -4490,9 +4538,19 @@
         <v>8.5000000000000006E-2</v>
       </c>
     </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.35">
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
+    <row r="22" spans="3:6" x14ac:dyDescent="0.35">
+      <c r="C22" s="4">
+        <v>256</v>
+      </c>
+      <c r="D22" s="5">
+        <v>0.30020000000000002</v>
+      </c>
+      <c r="E22" s="5">
+        <v>0.15609999999999999</v>
+      </c>
+      <c r="F22" s="4" t="s">
+        <v>23</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4506,7 +4564,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -4656,17 +4714,47 @@
         <v>0.1603</v>
       </c>
     </row>
-    <row r="17" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-    </row>
-    <row r="18" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-    </row>
-    <row r="19" spans="4:5" x14ac:dyDescent="0.35">
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>128</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.18179999999999999</v>
+      </c>
+      <c r="E17" s="3">
+        <v>0.16020000000000001</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B18">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>256</v>
+      </c>
+      <c r="D18" s="3">
+        <v>0.1812</v>
+      </c>
+      <c r="E18" s="3">
+        <v>0.16039999999999999</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.35">
+      <c r="B19">
+        <v>9</v>
+      </c>
+      <c r="C19">
+        <v>512</v>
+      </c>
+      <c r="D19" s="3">
+        <v>0.18149999999999999</v>
+      </c>
+      <c r="E19" s="3">
+        <v>0.1603</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4679,7 +4767,7 @@
   <dimension ref="B2:E19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:E9"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
